--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22122"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_DC44C33538AF0108512D37DE423C0835E6C6C95E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08303BA9-0E4C-4F26-8073-641A7D29917D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,11 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,27 +376,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -411,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -419,7 +420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -427,7 +428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -435,58 +436,63 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>43740</v>
+      </c>
+      <c r="B6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -495,8 +501,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -536,8 +551,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -626,15 +641,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -642,36 +648,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B125A7-7D23-4D82-B26D-9D593EA4223A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03131341-42B2-46DC-A4C4-C4DD441D0A86}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22122"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DC44C33538AF0108512D37DE423C0835E6C6C95E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{08303BA9-0E4C-4F26-8073-641A7D29917D}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,11 +33,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,27 +375,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -412,7 +411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -420,7 +419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -428,7 +427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -436,7 +435,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -444,55 +443,60 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43741</v>
+      </c>
+      <c r="B7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -501,6 +505,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -509,9 +519,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -551,8 +561,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -641,20 +651,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03131341-42B2-46DC-A4C4-C4DD441D0A86}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE020226-4427-431E-9F28-09EF467FC3F1}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22122"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45E226E4-58B9-453E-9F5B-A32D99968E2A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,11 +34,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,27 +376,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -411,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -419,7 +420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -427,7 +428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -435,7 +436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -443,7 +444,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -451,52 +452,62 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>43742</v>
+      </c>
+      <c r="B8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>43743</v>
+      </c>
+      <c r="B9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -511,17 +522,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -561,8 +563,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -651,23 +653,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE020226-4427-431E-9F28-09EF467FC3F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22204"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45E226E4-58B9-453E-9F5B-A32D99968E2A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57FE0CB7-28D7-48AA-AED7-C0BDE3DDBFE4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -469,10 +469,20 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>43744</v>
+      </c>
+      <c r="B10">
+        <v>240</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B11">
+        <v>243</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1"/>
@@ -516,12 +526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -653,7 +657,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -662,14 +666,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{57FE0CB7-28D7-48AA-AED7-C0BDE3DDBFE4}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{B06AA6A1-A96B-44E0-AE25-8BC9CA2EB3CF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +92,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -387,16 +391,16 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -412,7 +416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -420,7 +424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -428,7 +432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -436,7 +440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -444,7 +448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -452,7 +456,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -460,7 +464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -468,7 +472,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -476,7 +480,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -484,40 +488,45 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B12">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -526,6 +535,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -657,7 +672,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -666,20 +681,44 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22206"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{B06AA6A1-A96B-44E0-AE25-8BC9CA2EB3CF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9C6A9E9-8520-4CAC-A183-B74119896618}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,16 +392,16 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -416,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -424,7 +425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -432,7 +433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -440,7 +441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -448,7 +449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -456,7 +457,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -464,7 +465,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -472,7 +473,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -480,7 +481,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -488,7 +489,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43746</v>
       </c>
@@ -496,37 +497,42 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>43747</v>
+      </c>
+      <c r="B13">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -535,9 +541,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,52 +682,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9C6A9E9-8520-4CAC-A183-B74119896618}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE1EA526-29D9-4DA5-BBB7-62FDB14DA3C9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -392,16 +391,16 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -417,7 +416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -425,7 +424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -433,7 +432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -441,7 +440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -449,7 +448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -457,7 +456,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -465,7 +464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -473,7 +472,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -481,7 +480,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -489,7 +488,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43746</v>
       </c>
@@ -497,7 +496,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43747</v>
       </c>
@@ -505,34 +504,39 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B14">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -541,12 +545,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -682,19 +683,52 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22206"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE1EA526-29D9-4DA5-BBB7-62FDB14DA3C9}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA52A35E-4E08-42A5-9EBD-50598BE3556B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,16 +392,16 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -416,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -424,7 +425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -432,7 +433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -440,7 +441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -448,7 +449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -456,7 +457,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -464,7 +465,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -472,7 +473,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -480,7 +481,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -488,7 +489,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43746</v>
       </c>
@@ -496,7 +497,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43747</v>
       </c>
@@ -504,7 +505,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43748</v>
       </c>
@@ -512,31 +513,46 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B16">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>43751</v>
+      </c>
+      <c r="B17">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -545,12 +561,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -682,7 +692,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -691,44 +701,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA52A35E-4E08-42A5-9EBD-50598BE3556B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB5BC624-1C14-4539-AEFD-ED4E52A89752}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,16 +391,16 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -417,7 +416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -425,7 +424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -433,7 +432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -441,7 +440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -449,7 +448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -457,7 +456,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -465,7 +464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -473,7 +472,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -481,7 +480,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -489,7 +488,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43746</v>
       </c>
@@ -497,7 +496,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43747</v>
       </c>
@@ -505,7 +504,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43748</v>
       </c>
@@ -513,7 +512,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43749</v>
       </c>
@@ -521,7 +520,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43750</v>
       </c>
@@ -529,7 +528,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43751</v>
       </c>
@@ -537,22 +536,32 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B18">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B19">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
   </sheetData>
@@ -708,13 +717,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{AB5BC624-1C14-4539-AEFD-ED4E52A89752}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EF0D21A-9C2D-4285-B8B1-97C3EB67196E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,12 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B20">
+        <v>512</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -570,6 +575,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -701,22 +721,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -732,28 +761,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michelingroup.sharepoint.com/sites/guiguiperso/Shared Documents/Zoé/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_435A78E5709D5C8734C42D2CD6515076B7DD23F8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{6EF0D21A-9C2D-4285-B8B1-97C3EB67196E}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{01BB5CF0-FE50-4D37-9729-2EEB99DEB0A3}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,10 +561,20 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>43755</v>
+      </c>
+      <c r="B21">
+        <v>548</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B22">
+        <v>591</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -726,13 +736,13 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -746,19 +756,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FFC8F9B-4696-4E79-8D7F-50A59CBA2BDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08737A26-58BF-485A-8D6D-2985C4569B97}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michelingroup.sharepoint.com/sites/guiguiperso/Shared Documents/Zoé/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{01BB5CF0-FE50-4D37-9729-2EEB99DEB0A3}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA26D1B4-7938-4D91-98FC-AADFFEBD31C8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,28 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>43757</v>
+      </c>
+      <c r="B23">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43758</v>
+      </c>
+      <c r="B24">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B25">
+        <v>651</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -734,15 +755,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -756,5 +777,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08737A26-58BF-485A-8D6D-2985C4569B97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08737A26-58BF-485A-8D6D-2985C4569B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{BA26D1B4-7938-4D91-98FC-AADFFEBD31C8}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{30DDC8A0-F328-461C-9F19-E59207FC7EFC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,27 +600,20 @@
         <v>651</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B26">
+        <v>684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -752,31 +745,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08737A26-58BF-485A-8D6D-2985C4569B97}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -792,4 +776,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{30DDC8A0-F328-461C-9F19-E59207FC7EFC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C070B43-1DA8-4ED5-87D3-21135EAFC26D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,14 +608,37 @@
         <v>684</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B27">
+        <v>726</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -655,8 +678,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -745,35 +768,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08737A26-58BF-485A-8D6D-2985C4569B97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -787,17 +793,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF6EE0F-E099-4779-9B67-859483E1DA1D}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C070B43-1DA8-4ED5-87D3-21135EAFC26D}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F13992A-2C6D-4E02-98D1-5366FBF22826}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,29 +616,22 @@
         <v>726</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B28">
+        <v>762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -678,8 +671,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -768,20 +761,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322CFC13-A81D-4F6F-843D-3C2C276E3DE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,5 +789,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CF6EE0F-E099-4779-9B67-859483E1DA1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F13992A-2C6D-4E02-98D1-5366FBF22826}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{295D1601-18A6-4154-8D40-5CF12E122035}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,12 +624,35 @@
         <v>762</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B29">
+        <v>794</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -761,23 +784,20 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322CFC13-A81D-4F6F-843D-3C2C276E3DE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,17 +809,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322CFC13-A81D-4F6F-843D-3C2C276E3DE8}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22230"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{295D1601-18A6-4154-8D40-5CF12E122035}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B01AE13-C0DE-455D-BFFB-20EE271E99B3}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,19 +389,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -416,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -424,7 +425,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -432,7 +433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -440,7 +441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -448,7 +449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -456,7 +457,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -464,7 +465,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -472,7 +473,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -480,7 +481,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -488,7 +489,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43746</v>
       </c>
@@ -496,7 +497,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43747</v>
       </c>
@@ -504,7 +505,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43748</v>
       </c>
@@ -512,7 +513,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43749</v>
       </c>
@@ -520,7 +521,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43750</v>
       </c>
@@ -528,7 +529,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>43751</v>
       </c>
@@ -536,7 +537,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>43752</v>
       </c>
@@ -544,7 +545,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>43753</v>
       </c>
@@ -552,7 +553,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>43754</v>
       </c>
@@ -560,7 +561,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>43755</v>
       </c>
@@ -568,7 +569,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>43756</v>
       </c>
@@ -576,7 +577,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>43757</v>
       </c>
@@ -584,7 +585,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>43758</v>
       </c>
@@ -592,7 +593,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>43759</v>
       </c>
@@ -600,7 +601,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>43760</v>
       </c>
@@ -608,7 +609,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>43761</v>
       </c>
@@ -616,7 +617,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>43762</v>
       </c>
@@ -624,12 +625,20 @@
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>43763</v>
       </c>
       <c r="B29">
         <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B30">
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -638,18 +647,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,43 +794,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322CFC13-A81D-4F6F-843D-3C2C276E3DE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322CFC13-A81D-4F6F-843D-3C2C276E3DE8}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B01AE13-C0DE-455D-BFFB-20EE271E99B3}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E8F748F-59D9-4CB5-9B93-85CA402E5549}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +42,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,19 +388,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -417,7 +416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -425,7 +424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -433,7 +432,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -441,7 +440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -449,7 +448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -457,7 +456,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -465,7 +464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -473,7 +472,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -481,7 +480,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -489,7 +488,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43746</v>
       </c>
@@ -497,7 +496,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43747</v>
       </c>
@@ -505,7 +504,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43748</v>
       </c>
@@ -513,7 +512,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43749</v>
       </c>
@@ -521,7 +520,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43750</v>
       </c>
@@ -529,7 +528,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43751</v>
       </c>
@@ -537,7 +536,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43752</v>
       </c>
@@ -545,7 +544,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43753</v>
       </c>
@@ -553,7 +552,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43754</v>
       </c>
@@ -561,7 +560,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43755</v>
       </c>
@@ -569,7 +568,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43756</v>
       </c>
@@ -577,7 +576,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43757</v>
       </c>
@@ -585,7 +584,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43758</v>
       </c>
@@ -593,7 +592,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43759</v>
       </c>
@@ -601,7 +600,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43760</v>
       </c>
@@ -609,7 +608,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43761</v>
       </c>
@@ -617,7 +616,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43762</v>
       </c>
@@ -625,7 +624,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43763</v>
       </c>
@@ -633,12 +632,20 @@
         <v>794</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43773</v>
       </c>
       <c r="B30">
         <v>868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B31">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -647,21 +654,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -793,14 +785,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322CFC13-A81D-4F6F-843D-3C2C276E3DE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322CFC13-A81D-4F6F-843D-3C2C276E3DE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="5_{2AF74A12-0847-4AB8-BFBE-679A08320C28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E8F748F-59D9-4CB5-9B93-85CA402E5549}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDACA4F-6C78-4BBF-B2FE-1CB6714CF131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,14 +648,39 @@
         <v>980</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B32">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B33">
+        <v>1135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -695,8 +720,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -785,59 +810,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{322CFC13-A81D-4F6F-843D-3C2C276E3DE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4683461E-8DDB-4A9D-B0FF-D567DCE52EAF}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michelingroup.sharepoint.com/sites/guiguiperso/Shared Documents/Zoé/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDACA4F-6C78-4BBF-B2FE-1CB6714CF131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{549392C7-AE84-441B-BDB7-55E8FB9A1C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,18 +664,23 @@
         <v>1135</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B34">
+        <v>1170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,35 +816,52 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4683461E-8DDB-4A9D-B0FF-D567DCE52EAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4683461E-8DDB-4A9D-B0FF-D567DCE52EAF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michelingroup.sharepoint.com/sites/guiguiperso/Shared Documents/Zoé/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{549392C7-AE84-441B-BDB7-55E8FB9A1C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{549392C7-AE84-441B-BDB7-55E8FB9A1C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3E01CCEB-C825-48EC-BE3E-2BB5D9AD86F5}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,20 +672,31 @@
         <v>1170</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B35">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -725,8 +736,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -816,52 +827,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4683461E-8DDB-4A9D-B0FF-D567DCE52EAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{736999D4-1F16-477B-B08D-57465B91F830}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOMF\Sharepoint\MFP Michelin\guigui perso - Documents\Zoé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{549392C7-AE84-441B-BDB7-55E8FB9A1C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3E01CCEB-C825-48EC-BE3E-2BB5D9AD86F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47515B3E-7F38-4C5F-A9ED-5C2675149B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -388,13 +388,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -680,6 +680,22 @@
         <v>1200</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B36">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B37">
+        <v>1485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -695,8 +711,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -736,8 +752,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -841,20 +857,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{736999D4-1F16-477B-B08D-57465B91F830}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF281BB-8DB0-4294-961C-F860A6E1872A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47515B3E-7F38-4C5F-A9ED-5C2675149B80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
@@ -387,11 +386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,23 +695,28 @@
         <v>1485</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B38">
+        <v>1525</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -752,8 +756,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -843,35 +847,38 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55EF72C-0457-4188-9927-3AEDBA7A1B00}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACF281BB-8DB0-4294-961C-F860A6E1872A}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3BC857-01AD-46D7-9983-809D04E2E2BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
@@ -386,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +704,14 @@
         <v>1525</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B39">
+        <v>1710</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -715,8 +724,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="deae782ce3f59c397b974c5d83561ef2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8861602a2a15487ba17460a4c4585d0" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -756,8 +765,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -858,21 +867,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D55EF72C-0457-4188-9927-3AEDBA7A1B00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDF53A3D-8784-4667-881E-DD001D13B92E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3BC857-01AD-46D7-9983-809D04E2E2BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3328A-59C0-48C9-B181-13C907E78049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,15 +712,26 @@
         <v>1710</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B40">
+        <v>1880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,31 +867,42 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDF53A3D-8784-4667-881E-DD001D13B92E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDF53A3D-8784-4667-881E-DD001D13B92E}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michelingroup.sharepoint.com/sites/guiguiperso/Shared Documents/Zoé/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE3328A-59C0-48C9-B181-13C907E78049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{5385AC76-43B2-46F9-A0F3-D2FDE85F3450}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,24 +720,30 @@
         <v>1880</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43815</v>
+      </c>
+      <c r="B41">
+        <v>2393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b0f053db151659b61f6eea16ec841959">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25f1bff573e4ba7fee595b4d95e5e5cc" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b293a0d2a9486b5dae27f3b98892fd81">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" xmlns:ns3="2475b25d-34f9-4b62-adcb-6f16733d90fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c50affc3b9283673d7eccf0bdf98037" ns2:_="" ns3:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <xsd:import namespace="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -746,6 +752,8 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -767,6 +775,36 @@
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2475b25d-34f9-4b62-adcb-6f16733d90fb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
     <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
@@ -776,8 +814,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -867,27 +905,40 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDF53A3D-8784-4667-881E-DD001D13B92E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB18E64C-1C2E-4382-9B88-A5EA9D9C01A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -899,10 +950,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michelingroup.sharepoint.com/sites/guiguiperso/Shared Documents/Zoé/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{5385AC76-43B2-46F9-A0F3-D2FDE85F3450}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B871058-A7BE-4A8A-805B-0024208D747F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,20 +388,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -726,6 +726,22 @@
       </c>
       <c r="B41">
         <v>2393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B42">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B43">
+        <v>2888</v>
       </c>
     </row>
   </sheetData>
@@ -916,16 +932,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B871058-A7BE-4A8A-805B-0024208D747F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FDDB519-8A4F-472B-9223-077CF1A9CE43}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,15 +744,26 @@
         <v>2888</v>
       </c>
     </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B44">
+        <v>3180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,27 +932,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -966,9 +965,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FDDB519-8A4F-472B-9223-077CF1A9CE43}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{7501D75C-CE3C-4164-84EA-01947C280CF6}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,18 +752,302 @@
         <v>3180</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:B74" si="0">B46-1</f>
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>4684</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>4685</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>4689</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>4693</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>4695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B75">
+        <f>B76-1</f>
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B76">
+        <v>4713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,15 +1216,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -965,18 +1261,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{7501D75C-CE3C-4164-84EA-01947C280CF6}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{A94B4CBC-BC8F-4847-A485-E9CA73E97786}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,18 +1039,43 @@
         <v>4713</v>
       </c>
     </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B77">
+        <v>4726</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B78">
+        <v>4735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b293a0d2a9486b5dae27f3b98892fd81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" xmlns:ns3="2475b25d-34f9-4b62-adcb-6f16733d90fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c50affc3b9283673d7eccf0bdf98037" ns2:_="" ns3:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -1215,33 +1240,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB18E64C-1C2E-4382-9B88-A5EA9D9C01A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1258,12 +1282,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{A94B4CBC-BC8F-4847-A485-E9CA73E97786}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{36F18AF1-321D-4EAB-9C77-ADC55772A6D0}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,6 +1053,14 @@
       </c>
       <c r="B78">
         <v>4735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B79">
+        <v>5094</v>
       </c>
     </row>
   </sheetData>
@@ -1070,12 +1078,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b293a0d2a9486b5dae27f3b98892fd81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" xmlns:ns3="2475b25d-34f9-4b62-adcb-6f16733d90fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c50affc3b9283673d7eccf0bdf98037" ns2:_="" ns3:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -1240,6 +1242,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
@@ -1249,23 +1257,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB18E64C-1C2E-4382-9B88-A5EA9D9C01A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1282,4 +1273,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
+    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{36F18AF1-321D-4EAB-9C77-ADC55772A6D0}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37F7EBE4-DD40-41B2-8980-407E8EB8E64F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,6 +1064,14 @@
       </c>
       <c r="B79">
         <v>5094</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B80">
+        <v>6183</v>
       </c>
     </row>
   </sheetData>
@@ -1078,8 +1089,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b293a0d2a9486b5dae27f3b98892fd81">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" xmlns:ns3="2475b25d-34f9-4b62-adcb-6f16733d90fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c50affc3b9283673d7eccf0bdf98037" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="380fde59498b53dbb3c56a0dc66dc13d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" xmlns:ns3="2475b25d-34f9-4b62-adcb-6f16733d90fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e41d4fc52a8b5175f892e0ee57094915" ns2:_="" ns3:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:import namespace="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
     <xsd:element name="properties">
@@ -1116,7 +1133,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2475b25d-34f9-4b62-adcb-6f16733d90fb" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1135,7 +1152,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1152,8 +1169,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1242,12 +1259,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
   <ds:schemaRefs>
@@ -1257,25 +1268,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB18E64C-1C2E-4382-9B88-A5EA9D9C01A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1290,4 +1282,8 @@
     <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AB6B447-DFB9-42AE-AFA0-FD3F8B056F30}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37F7EBE4-DD40-41B2-8980-407E8EB8E64F}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57CC6AB8-EEBF-492B-BFB8-6B3F97D6621D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +46,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,19 +392,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -419,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -427,7 +428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -435,7 +436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -443,7 +444,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -451,7 +452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -459,7 +460,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -467,7 +468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -475,7 +476,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -483,7 +484,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -491,7 +492,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43746</v>
       </c>
@@ -499,7 +500,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43747</v>
       </c>
@@ -507,7 +508,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43748</v>
       </c>
@@ -515,7 +516,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43749</v>
       </c>
@@ -523,7 +524,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43750</v>
       </c>
@@ -531,7 +532,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>43751</v>
       </c>
@@ -539,7 +540,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>43752</v>
       </c>
@@ -547,7 +548,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>43753</v>
       </c>
@@ -555,7 +556,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>43754</v>
       </c>
@@ -563,7 +564,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>43755</v>
       </c>
@@ -571,7 +572,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>43756</v>
       </c>
@@ -579,7 +580,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>43757</v>
       </c>
@@ -587,7 +588,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>43758</v>
       </c>
@@ -595,7 +596,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>43759</v>
       </c>
@@ -603,7 +604,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>43760</v>
       </c>
@@ -611,7 +612,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>43761</v>
       </c>
@@ -619,7 +620,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>43762</v>
       </c>
@@ -627,7 +628,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>43763</v>
       </c>
@@ -635,7 +636,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>43773</v>
       </c>
@@ -643,7 +644,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>43775</v>
       </c>
@@ -651,7 +652,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>43777</v>
       </c>
@@ -659,7 +660,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>43781</v>
       </c>
@@ -667,7 +668,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>43782</v>
       </c>
@@ -675,7 +676,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>43783</v>
       </c>
@@ -683,7 +684,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>43787</v>
       </c>
@@ -691,7 +692,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>43795</v>
       </c>
@@ -699,7 +700,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>43796</v>
       </c>
@@ -707,7 +708,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>43801</v>
       </c>
@@ -715,7 +716,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>43804</v>
       </c>
@@ -723,7 +724,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>43815</v>
       </c>
@@ -731,7 +732,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>43828</v>
       </c>
@@ -739,7 +740,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>43840</v>
       </c>
@@ -747,7 +748,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>43851</v>
       </c>
@@ -755,7 +756,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43899</v>
       </c>
@@ -764,7 +765,7 @@
         <v>4682</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>43900</v>
       </c>
@@ -773,7 +774,7 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>43901</v>
       </c>
@@ -782,7 +783,7 @@
         <v>4684</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>43902</v>
       </c>
@@ -791,7 +792,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>43903</v>
       </c>
@@ -800,7 +801,7 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>43904</v>
       </c>
@@ -809,7 +810,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>43905</v>
       </c>
@@ -818,7 +819,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>43906</v>
       </c>
@@ -827,7 +828,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>43907</v>
       </c>
@@ -836,7 +837,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>43908</v>
       </c>
@@ -845,7 +846,7 @@
         <v>4691</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>43909</v>
       </c>
@@ -854,7 +855,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>43910</v>
       </c>
@@ -863,7 +864,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>43911</v>
       </c>
@@ -872,7 +873,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>43912</v>
       </c>
@@ -881,7 +882,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>43913</v>
       </c>
@@ -890,7 +891,7 @@
         <v>4696</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>43914</v>
       </c>
@@ -899,7 +900,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>43915</v>
       </c>
@@ -908,7 +909,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>43916</v>
       </c>
@@ -917,7 +918,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>43917</v>
       </c>
@@ -926,7 +927,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>43918</v>
       </c>
@@ -935,7 +936,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>43919</v>
       </c>
@@ -944,7 +945,7 @@
         <v>4702</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>43920</v>
       </c>
@@ -953,7 +954,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>43921</v>
       </c>
@@ -962,7 +963,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>43922</v>
       </c>
@@ -971,7 +972,7 @@
         <v>4705</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>43923</v>
       </c>
@@ -980,7 +981,7 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>43924</v>
       </c>
@@ -989,7 +990,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>43925</v>
       </c>
@@ -998,7 +999,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>43926</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>43927</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>43928</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>43929</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>43930</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>43941</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>43946</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>4735</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>43980</v>
       </c>
@@ -1066,12 +1067,20 @@
         <v>5094</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>44032</v>
       </c>
       <c r="B80">
         <v>6183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B81">
+        <v>16766</v>
       </c>
     </row>
   </sheetData>
@@ -1080,23 +1089,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="380fde59498b53dbb3c56a0dc66dc13d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" xmlns:ns3="2475b25d-34f9-4b62-adcb-6f16733d90fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e41d4fc52a8b5175f892e0ee57094915" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b293a0d2a9486b5dae27f3b98892fd81">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" xmlns:ns3="2475b25d-34f9-4b62-adcb-6f16733d90fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c50affc3b9283673d7eccf0bdf98037" ns2:_="" ns3:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
     <xsd:import namespace="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
     <xsd:element name="properties">
@@ -1133,7 +1127,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2475b25d-34f9-4b62-adcb-6f16733d90fb" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1152,7 +1146,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1169,8 +1163,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1259,31 +1253,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C1B2-D64C-4CA9-A5AB-D6278F0AA624}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2475b25d-34f9-4b62-adcb-6f16733d90fb"/>
-    <ds:schemaRef ds:uri="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AB6B447-DFB9-42AE-AFA0-FD3F8B056F30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
 </file>
--- a/python-sandbox/zoe/data/kilométrage.xlsx
+++ b/python-sandbox/zoe/data/kilométrage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\MFP Michelin\guigui perso - Documents\Zoé\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michelingroup.sharepoint.com/sites/guiguiperso/Shared Documents/Zoé/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57CC6AB8-EEBF-492B-BFB8-6B3F97D6621D}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="5_{6C8E882E-806F-47E2-A117-BA7307A717D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEFD822C-B73A-4B49-A858-2A69D6A70778}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-10800" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -392,19 +392,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43735</v>
       </c>
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43736</v>
       </c>
@@ -428,7 +428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43737</v>
       </c>
@@ -436,7 +436,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43739</v>
       </c>
@@ -444,7 +444,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43740</v>
       </c>
@@ -452,7 +452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43741</v>
       </c>
@@ -460,7 +460,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43742</v>
       </c>
@@ -468,7 +468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43743</v>
       </c>
@@ -476,7 +476,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43744</v>
       </c>
@@ -484,7 +484,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43745</v>
       </c>
@@ -492,7 +492,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43746</v>
       </c>
@@ -500,7 +500,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43747</v>
       </c>
@@ -508,7 +508,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43748</v>
       </c>
@@ -516,7 +516,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43749</v>
       </c>
@@ -524,7 +524,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43750</v>
       </c>
@@ -532,7 +532,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43751</v>
       </c>
@@ -540,7 +540,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43752</v>
       </c>
@@ -548,7 +548,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43753</v>
       </c>
@@ -556,7 +556,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43754</v>
       </c>
@@ -564,7 +564,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43755</v>
       </c>
@@ -572,7 +572,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43756</v>
       </c>
@@ -580,7 +580,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43757</v>
       </c>
@@ -588,7 +588,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43758</v>
       </c>
@@ -596,7 +596,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43759</v>
       </c>
@@ -604,7 +604,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43760</v>
       </c>
@@ -612,7 +612,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43761</v>
       </c>
@@ -620,7 +620,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43762</v>
       </c>
@@ -628,7 +628,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43763</v>
       </c>
@@ -636,7 +636,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43773</v>
       </c>
@@ -644,7 +644,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43775</v>
       </c>
@@ -652,7 +652,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43777</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43781</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43782</v>
       </c>
@@ -676,7 +676,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43783</v>
       </c>
@@ -684,7 +684,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43787</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43795</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43796</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43801</v>
       </c>
@@ -716,7 +716,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43804</v>
       </c>
@@ -724,7 +724,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43815</v>
       </c>
@@ -732,7 +732,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43828</v>
       </c>
@@ -740,7 +740,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43840</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43851</v>
       </c>
@@ -756,7 +756,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43899</v>
       </c>
@@ -765,7 +765,7 @@
         <v>4682</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43900</v>
       </c>
@@ -774,7 +774,7 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43901</v>
       </c>
@@ -783,7 +783,7 @@
         <v>4684</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43902</v>
       </c>
@@ -792,7 +792,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43903</v>
       </c>
@@ -801,7 +801,7 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43904</v>
       </c>
@@ -810,7 +810,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43905</v>
       </c>
@@ -819,7 +819,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43906</v>
       </c>
@@ -828,7 +828,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43907</v>
       </c>
@@ -837,7 +837,7 @@
         <v>4690</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43908</v>
       </c>
@@ -846,7 +846,7 @@
         <v>4691</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43909</v>
       </c>
@@ -855,7 +855,7 @@
         <v>4692</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43910</v>
       </c>
@@ -864,7 +864,7 @@
         <v>4693</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43911</v>
       </c>
@@ -873,7 +873,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43912</v>
       </c>
@@ -882,7 +882,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43913</v>
       </c>
@@ -891,7 +891,7 @@
         <v>4696</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43914</v>
       </c>
@@ -900,7 +900,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43915</v>
       </c>
@@ -909,7 +909,7 @@
         <v>4698</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43916</v>
       </c>
@@ -918,7 +918,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43917</v>
       </c>
@@ -927,7 +927,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43918</v>
       </c>
@@ -936,7 +936,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43919</v>
       </c>
@@ -945,7 +945,7 @@
         <v>4702</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43920</v>
       </c>
@@ -954,7 +954,7 @@
         <v>4703</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43921</v>
       </c>
@@ -963,7 +963,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43922</v>
       </c>
@@ -972,7 +972,7 @@
         <v>4705</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43923</v>
       </c>
@@ -981,7 +981,7 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43924</v>
       </c>
@@ -990,7 +990,7 @@
         <v>4707</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43925</v>
       </c>
@@ -999,7 +999,7 @@
         <v>4708</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43926</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43927</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43928</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43929</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>4712</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43930</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43941</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43946</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>4735</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43980</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>5094</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44032</v>
       </c>
@@ -1075,12 +1075,36 @@
         <v>6183</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44521</v>
       </c>
       <c r="B81">
         <v>16766</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B82">
+        <v>16862</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B83">
+        <v>16945</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B84">
+        <v>17246</v>
       </c>
     </row>
   </sheetData>
@@ -1089,6 +1113,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA6F00A08C77474B8BA8A8E04610D54E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b293a0d2a9486b5dae27f3b98892fd81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49ce4606-b24d-451c-99b6-6262fe2a8a32" xmlns:ns3="2475b25d-34f9-4b62-adcb-6f16733d90fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1c50affc3b9283673d7eccf0bdf98037" ns2:_="" ns3:_="">
     <xsd:import namespace="49ce4606-b24d-451c-99b6-6262fe2a8a32"/>
@@ -1253,29 +1292,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C1B2-D64C-4CA9-A5AB-D6278F0AA624}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584844D0-90E6-45AB-AFE4-E2943EACAFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51D84F5-F9F7-4373-9F3F-D2E0180AF6CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0149A574-A993-4006-8DD9-16D666D7A237}"/>
 </file>